--- a/src/apodeixi/controllers/kernel/bdd/tests_unit/input_data/feature_injection_INPUT.xlsx
+++ b/src/apodeixi/controllers/kernel/bdd/tests_unit/input_data/feature_injection_INPUT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleja\Documents\Code\chateauclaudia-labs\apodeixi\project\apodeixi\controllers\kernel\bdd\tests_unit\input_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleja\Documents\Code\chateauclaudia-labs\apodeixi\project\src\apodeixi\controllers\kernel\bdd\tests_unit\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68756F34-C136-48E9-A976-F2A566F22BA4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB410EF5-A3B9-4ED1-AA00-CF7E21E172EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" activeTab="1" xr2:uid="{4B727691-5255-46C4-A89F-234F9FDCAFEC}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="124">
   <si>
     <t>Journeys</t>
   </si>
@@ -401,13 +401,19 @@
   </si>
   <si>
     <t>data.range</t>
+  </si>
+  <si>
+    <t>estimatedBy</t>
+  </si>
+  <si>
+    <t>estimatedOn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -427,6 +433,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -503,7 +517,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -535,9 +549,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -552,6 +563,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -883,12 +900,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
@@ -1102,7 +1119,7 @@
   <dimension ref="B1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1124,13 +1141,13 @@
       <c r="B1" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
     </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B2" s="8" t="s">
@@ -1139,17 +1156,17 @@
       <c r="C2" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B3" s="8" t="s">
@@ -1158,22 +1175,22 @@
       <c r="C3" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="K3" s="14" t="s">
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="K3" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
     </row>
     <row r="4" spans="2:17" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B4" s="8" t="s">
@@ -1388,22 +1405,30 @@
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
+      <c r="B10" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>91</v>
+      </c>
       <c r="I10" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B11" s="10"/>
-      <c r="C11" s="12"/>
+      <c r="B11" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="16">
+        <v>44367</v>
+      </c>
       <c r="I11" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B12" s="10"/>
-      <c r="C12" s="13"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="12"/>
       <c r="H12" s="2" t="s">
         <v>72</v>
       </c>
@@ -1416,7 +1441,7 @@
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B13" s="10"/>
-      <c r="C13" s="12"/>
+      <c r="C13" s="11"/>
       <c r="I13" s="2" t="s">
         <v>2</v>
       </c>

--- a/src/apodeixi/controllers/kernel/bdd/tests_unit/input_data/feature_injection_INPUT.xlsx
+++ b/src/apodeixi/controllers/kernel/bdd/tests_unit/input_data/feature_injection_INPUT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleja\Documents\Code\chateauclaudia-labs\apodeixi\project\src\apodeixi\controllers\kernel\bdd\tests_unit\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB410EF5-A3B9-4ED1-AA00-CF7E21E172EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054D82AE-EFD9-4BA7-A17B-6933CC4092EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" activeTab="1" xr2:uid="{4B727691-5255-46C4-A89F-234F9FDCAFEC}"/>
+    <workbookView xWindow="7327" yWindow="3885" windowWidth="12578" windowHeight="11715" activeTab="1" xr2:uid="{4B727691-5255-46C4-A89F-234F9FDCAFEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Vision" sheetId="2" r:id="rId1"/>
@@ -364,9 +364,6 @@
     <t>E5:I100</t>
   </si>
   <si>
-    <t>excelAPI</t>
-  </si>
-  <si>
     <t>Posting Label</t>
   </si>
   <si>
@@ -391,9 +388,6 @@
     <t>scaffoldingPurpose</t>
   </si>
   <si>
-    <t>bdd.kernel.a6i.xlsx/v1a</t>
-  </si>
-  <si>
     <t>capability-hierarchy</t>
   </si>
   <si>
@@ -407,6 +401,12 @@
   </si>
   <si>
     <t>estimatedOn</t>
+  </si>
+  <si>
+    <t>manifestAPI</t>
+  </si>
+  <si>
+    <t>bdd.kernel.a6i.io/v1a</t>
   </si>
 </sst>
 </file>
@@ -555,6 +555,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -563,12 +569,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -900,12 +900,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
@@ -1119,7 +1119,7 @@
   <dimension ref="B1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1139,65 +1139,65 @@
   <sheetData>
     <row r="1" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B1" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="M1" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="M1" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
     </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B2" s="8" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="E2" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B3" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="E3" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="K3" s="13" t="s">
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="K3" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
     </row>
     <row r="4" spans="2:17" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B4" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>93</v>
@@ -1230,10 +1230,10 @@
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B5" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>97</v>
@@ -1274,10 +1274,10 @@
     </row>
     <row r="6" spans="2:17" s="5" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B6" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>112</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>113</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>81</v>
@@ -1342,7 +1342,7 @@
     </row>
     <row r="8" spans="2:17" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B8" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>91</v>
@@ -1386,7 +1386,7 @@
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B9" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>108</v>
@@ -1406,7 +1406,7 @@
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B10" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>91</v>
@@ -1417,9 +1417,9 @@
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B11" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C11" s="16">
+        <v>121</v>
+      </c>
+      <c r="C11" s="13">
         <v>44367</v>
       </c>
       <c r="I11" s="2" t="s">
@@ -1427,7 +1427,7 @@
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B12" s="17"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="12"/>
       <c r="H12" s="2" t="s">
         <v>72</v>

--- a/src/apodeixi/controllers/kernel/bdd/tests_unit/input_data/feature_injection_INPUT.xlsx
+++ b/src/apodeixi/controllers/kernel/bdd/tests_unit/input_data/feature_injection_INPUT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleja\Documents\Code\chateauclaudia-labs\apodeixi\project\src\apodeixi\controllers\kernel\bdd\tests_unit\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054D82AE-EFD9-4BA7-A17B-6933CC4092EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85B1A41-27B5-435A-A9BC-A1FD06ED5EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7327" yWindow="3885" windowWidth="12578" windowHeight="11715" activeTab="1" xr2:uid="{4B727691-5255-46C4-A89F-234F9FDCAFEC}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" activeTab="1" xr2:uid="{4B727691-5255-46C4-A89F-234F9FDCAFEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Vision" sheetId="2" r:id="rId1"/>
@@ -304,9 +304,6 @@
     <t>BDD</t>
   </si>
   <si>
-    <t>environment</t>
-  </si>
-  <si>
     <t>Production</t>
   </si>
   <si>
@@ -407,6 +404,9 @@
   </si>
   <si>
     <t>bdd.kernel.a6i.io/v1a</t>
+  </si>
+  <si>
+    <t>knowledgeBase</t>
   </si>
 </sst>
 </file>
@@ -1119,7 +1119,7 @@
   <dimension ref="B1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1139,7 +1139,7 @@
   <sheetData>
     <row r="1" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B1" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M1" s="17" t="s">
         <v>78</v>
@@ -1151,10 +1151,10 @@
     </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B2" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>122</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>123</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>75</v>
@@ -1170,10 +1170,10 @@
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B3" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>63</v>
@@ -1194,61 +1194,61 @@
     </row>
     <row r="4" spans="2:17" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B4" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q4" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B5" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>74</v>
@@ -1257,7 +1257,7 @@
         <v>76</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>67</v>
@@ -1266,18 +1266,18 @@
         <v>79</v>
       </c>
       <c r="P5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="6" spans="2:17" s="5" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B6" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>111</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>112</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>81</v>
@@ -1319,10 +1319,10 @@
     </row>
     <row r="7" spans="2:17" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B7" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>89</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>90</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -1342,10 +1342,10 @@
     </row>
     <row r="8" spans="2:17" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B8" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>62</v>
@@ -1386,10 +1386,10 @@
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B9" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>68</v>
@@ -1406,10 +1406,10 @@
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B10" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>2</v>
@@ -1417,7 +1417,7 @@
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B11" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C11" s="13">
         <v>44367</v>
